--- a/Faza 1/2b Format partner budget - Horizon2020 - FRI LJ.xlsx
+++ b/Faza 1/2b Format partner budget - Horizon2020 - FRI LJ.xlsx
@@ -1458,10 +1458,13 @@
         <f t="shared" ref="Q14:Q22" si="3">+J14+K14+L14+M14+O14+P14</f>
         <v>16875</v>
       </c>
-      <c r="R14" s="37"/>
+      <c r="R14" s="38">
+        <f t="shared" ref="R14:R26" si="4">Q14</f>
+        <v>16875</v>
+      </c>
       <c r="S14" s="38">
-        <f t="shared" ref="S14:S22" si="4">+Q14-R14</f>
-        <v>16875</v>
+        <f t="shared" ref="S14:S22" si="5">+Q14-R14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -1503,10 +1506,13 @@
         <f t="shared" si="3"/>
         <v>16562.5</v>
       </c>
-      <c r="R15" s="37"/>
-      <c r="S15" s="38">
+      <c r="R15" s="38">
         <f t="shared" si="4"/>
         <v>16562.5</v>
+      </c>
+      <c r="S15" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -1535,9 +1541,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R16" s="37"/>
+      <c r="R16" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="S16" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1582,10 +1591,13 @@
         <f t="shared" si="3"/>
         <v>73625</v>
       </c>
-      <c r="R17" s="37"/>
-      <c r="S17" s="38">
+      <c r="R17" s="38">
         <f t="shared" si="4"/>
         <v>73625</v>
+      </c>
+      <c r="S17" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
@@ -1614,9 +1626,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R18" s="37"/>
+      <c r="R18" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="S18" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1646,9 +1661,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R19" s="37"/>
+      <c r="R19" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="S19" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1685,7 +1703,7 @@
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
       <c r="O20" s="37">
-        <f t="shared" ref="O20:O25" si="5">+$O$4*(J20+K20+M20-N20)</f>
+        <f t="shared" ref="O20:O25" si="6">+$O$4*(J20+K20+M20-N20)</f>
         <v>20627.5</v>
       </c>
       <c r="P20" s="36"/>
@@ -1693,10 +1711,13 @@
         <f t="shared" si="3"/>
         <v>109137.5</v>
       </c>
-      <c r="R20" s="37"/>
-      <c r="S20" s="38">
+      <c r="R20" s="38">
         <f t="shared" si="4"/>
         <v>109137.5</v>
+      </c>
+      <c r="S20" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -1732,7 +1753,7 @@
       <c r="M21" s="36"/>
       <c r="N21" s="36"/>
       <c r="O21" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19387.5</v>
       </c>
       <c r="P21" s="36"/>
@@ -1740,10 +1761,13 @@
         <f t="shared" si="3"/>
         <v>106937.5</v>
       </c>
-      <c r="R21" s="37"/>
-      <c r="S21" s="38">
+      <c r="R21" s="38">
         <f t="shared" si="4"/>
         <v>106937.5</v>
+      </c>
+      <c r="S21" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
@@ -1779,7 +1803,7 @@
       <c r="M22" s="36"/>
       <c r="N22" s="36"/>
       <c r="O22" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9175</v>
       </c>
       <c r="P22" s="36"/>
@@ -1787,10 +1811,13 @@
         <f t="shared" si="3"/>
         <v>48875</v>
       </c>
-      <c r="R22" s="37"/>
-      <c r="S22" s="38">
+      <c r="R22" s="38">
         <f t="shared" si="4"/>
         <v>48875</v>
+      </c>
+      <c r="S22" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -1824,12 +1851,15 @@
       <c r="M23" s="36"/>
       <c r="N23" s="36"/>
       <c r="O23" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12056.5</v>
       </c>
       <c r="P23" s="36"/>
       <c r="Q23" s="36"/>
-      <c r="R23" s="37"/>
+      <c r="R23" s="38" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="S23" s="37"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -1865,12 +1895,15 @@
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
       <c r="O24" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9175</v>
       </c>
       <c r="P24" s="36"/>
       <c r="Q24" s="36"/>
-      <c r="R24" s="37"/>
+      <c r="R24" s="38" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="S24" s="37"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -1904,12 +1937,15 @@
       <c r="M25" s="36"/>
       <c r="N25" s="36"/>
       <c r="O25" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24115</v>
       </c>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
-      <c r="R25" s="37"/>
+      <c r="R25" s="38" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="S25" s="37"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
@@ -1938,7 +1974,10 @@
         <f>+J26+K26+L26+M26+O26+P26</f>
         <v>0</v>
       </c>
-      <c r="R26" s="37"/>
+      <c r="R26" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="S26" s="38">
         <f>+Q26-R26</f>
         <v>0</v>
@@ -1951,68 +1990,68 @@
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="39">
-        <f t="shared" ref="D27:S27" si="6">SUM(D14:D26)</f>
+        <f t="shared" ref="D27:S27" si="7">SUM(D14:D26)</f>
         <v>0</v>
       </c>
       <c r="E27" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="F27" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="G27" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="H27" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I27" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="J27" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>185000</v>
       </c>
       <c r="K27" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>275596</v>
       </c>
       <c r="L27" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29000</v>
       </c>
       <c r="M27" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N27" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O27" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>115149</v>
       </c>
       <c r="P27" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q27" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>372012.5</v>
       </c>
       <c r="R27" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>372012.5</v>
       </c>
       <c r="S27" s="46">
-        <f t="shared" si="6"/>
-        <v>372012.5</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="T27" s="47"/>
     </row>
